--- a/public/price_tr/土耳其分站文案翻译.xlsx
+++ b/public/price_tr/土耳其分站文案翻译.xlsx
@@ -65,6 +65,30 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> 土耳其 TR translation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pls not transalte the content in {}；&lt;0&gt; &lt;/0&gt; is a tag, 〈0〉copywriting〈/0〉，copywriting needs to be translated</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">中文：
 </t>
     </r>
@@ -77,30 +101,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">大括号里的单词{}为变量词不需要翻译；&lt;0&gt; &lt;/0&gt; 为标签， &lt;0&gt;文案&lt;/0&gt;包裹的文案需要翻译，蓝色字体附带链接。</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 土耳其 TR translation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pls not transalte the content in {}；&lt;0&gt; &lt;/0&gt; is a tag, 〈0〉copywriting〈/0〉，copywriting needs to be translated</t>
     </r>
   </si>
 </sst>
@@ -132,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
@@ -162,6 +155,41 @@
     </font>
     <font>
       <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF373C43"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -203,13 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF373C43"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -219,27 +240,6 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,18 +326,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -405,10 +397,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,14 +453,14 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -468,38 +468,38 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="4" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="5" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="6" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,13 +848,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -872,16 +872,16 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
+      <c r="A2" s="5" t="str">
         <v>可交易</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="5" t="str">
         <v>Tradable</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="5" t="str">
         <v>Satılabilir</v>
       </c>
       <c r="D2" s="1"/>
@@ -900,156 +900,156 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>加密货币价格实时行情,排行榜,图表和市值 | Gate.TR</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="5" t="str">
         <v>Real-time cryptocurrency prices, rankings, charts, and market capitalization｜Gate.TR</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>Gerçek zamanlı kripto para fiyatları, sıralamalar, grafikler ve piyasa değeri｜Gate.TR</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>我的</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="5" t="str">
         <v>My</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="str">
         <v>Benim</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="4" t="str">
         <v>我的加密货币投资组合｜Gate.TR</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="5" t="str">
         <v>My Cryptocurrency Portfolio｜Gate.TR</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="4" t="str">
         <v>Kripto Para Portföyüm｜Gate.TR</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="4" t="str">
         <v>收藏</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="5" t="str">
         <v>Favorite</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="4" t="str">
         <v>Favori</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="4" t="str">
         <v>关注你最喜欢的加密货币和代币｜Gate.TR</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="5" t="str">
         <v>Track your favorite cryptocurrencies and tokens｜Gate.TR</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="4" t="str">
         <v>Favori kripto paralarınızı ve tokenlerinizi takip edin｜Gate.TR</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="10" t="str">
+      <c r="A8" s="12" t="str">
         <v>{Amount}条目/页</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="5" t="str">
         <v>{Amount} Entries/Page</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="5" t="str">
         <v>{Amount} Girişler/Sayfa</v>
       </c>
       <c r="D8" s="1"/>
@@ -1069,17 +1069,17 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
     </row>
     <row customHeight="true" ht="19" r="9">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="12" t="str">
         <v>跳转至</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="5" t="str">
         <v>Jump to</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="14" t="str">
         <v>Şuraya atla</v>
       </c>
       <c r="D9" s="1"/>
@@ -1099,17 +1099,17 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
     </row>
     <row customHeight="true" ht="19" r="10">
       <c r="A10" s="6" t="str">
         <v>页</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="5" t="str">
         <v>Page</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="14" t="str">
         <v>Sayfa</v>
       </c>
       <c r="D10" s="1"/>
@@ -1129,14 +1129,14 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row customHeight="true" ht="19" r="11">
       <c r="A11" s="6" t="str">
         <v>前往第{index}页</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="5" t="str">
         <v>Go to page {index}</v>
       </c>
       <c r="C11" s="6" t="str">
@@ -1159,17 +1159,17 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row customHeight="true" ht="19" r="12">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="5" t="str">
         <v>请先登陆</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="5" t="str">
         <v>Please log in first</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="5" t="str">
         <v>Lütfen önce giriş yapın</v>
       </c>
       <c r="D12" s="1"/>
@@ -1189,73 +1189,73 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="5" t="str">
         <v>公告：{massage}</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="5" t="str">
         <v>Notice: {massage}</v>
       </c>
-      <c r="C13" s="7" t="str">
+      <c r="C13" s="5" t="str">
         <v>Dikkat: {massage}</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="18"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="5" t="str">
         <v>更多</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="5" t="str">
         <v>More</v>
       </c>
-      <c r="C14" s="7" t="str">
+      <c r="C14" s="5" t="str">
         <v>Daha fazla</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="18"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="5" t="str">
         <v>已有资产</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="5" t="str">
         <v>My</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="5" t="str">
         <v>Benim</v>
       </c>
       <c r="D15" s="1"/>
@@ -1274,18 +1274,18 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="str">
+      <c r="A16" s="15" t="str">
         <v>搜索</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="16" t="str">
         <v>Search</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="5" t="str">
         <v>Arama</v>
       </c>
       <c r="D16" s="1"/>
@@ -1304,16 +1304,16 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="3"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="5" t="str">
         <v>币种</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="5" t="str">
         <v>Currency</v>
       </c>
-      <c r="C17" s="7" t="str">
+      <c r="C17" s="5" t="str">
         <v>Para Birimi</v>
       </c>
       <c r="D17" s="1"/>
@@ -1332,16 +1332,16 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="5" t="str">
         <v>价格</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="5" t="str">
         <v>Price</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="5" t="str">
         <v>Fiyat</v>
       </c>
       <c r="D18" s="1"/>
@@ -1360,16 +1360,16 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="5" t="str">
         <v>日涨跌</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="7" t="str">
         <v>24H Change</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="7" t="str">
         <v>24S Değişim</v>
       </c>
       <c r="D19" s="1"/>
@@ -1388,16 +1388,16 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="5" t="str">
         <v>交易量</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="5" t="str">
         <v>Volume</v>
       </c>
-      <c r="C20" s="7" t="str">
+      <c r="C20" s="5" t="str">
         <v>Hacim</v>
       </c>
       <c r="D20" s="1"/>
@@ -1416,16 +1416,16 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="5" t="str">
         <v>总市值</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="5" t="str">
         <v>Market Cap</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="5" t="str">
         <v>Piyasa</v>
       </c>
       <c r="D21" s="1"/>
@@ -1444,16 +1444,16 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="5" t="str">
         <v>走势图</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="5" t="str">
         <v>Chart</v>
       </c>
-      <c r="C22" s="7" t="str">
+      <c r="C22" s="5" t="str">
         <v>Grafik</v>
       </c>
       <c r="D22" s="1"/>
@@ -1472,16 +1472,16 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="5" t="str">
         <v>交易</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="5" t="str">
         <v>Trade</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="11" t="str">
         <v>İşlem</v>
       </c>
       <c r="D23" s="1"/>
@@ -1500,16 +1500,16 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="3"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="5" t="str">
         <v>操作</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="5" t="str">
         <v>Action</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="5" t="str">
         <v>Eylem</v>
       </c>
       <c r="D24" s="1"/>
@@ -1528,196 +1528,196 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="4"/>
     </row>
     <row customHeight="true" ht="20" r="25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="5" t="str">
         <v>交易</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="11" t="str">
         <v>Trade</v>
       </c>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="11" t="str">
         <v>İşlem</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
     </row>
     <row customHeight="true" ht="20" r="26">
-      <c r="A26" s="7" t="str">
+      <c r="A26" s="5" t="str">
         <v>现货</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B26" s="11" t="str">
         <v>Spot</v>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="5" t="str">
         <v>Spot</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row customHeight="true" ht="20" r="27">
-      <c r="A27" s="16" t="str">
+      <c r="A27" s="17" t="str">
         <v>永续合约</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="11" t="str">
         <v>Perpetual</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="5" t="str">
         <v>Sürekli</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row customHeight="true" ht="20" r="28">
-      <c r="A28" s="7" t="str">
+      <c r="A28" s="5" t="str">
         <v>杠杆</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="11" t="str">
         <v>Margin</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="5" t="str">
         <v>Marjin</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
     </row>
     <row customHeight="true" ht="20" r="29">
-      <c r="A29" s="9" t="str">
+      <c r="A29" s="11" t="str">
         <v>交割合约</v>
       </c>
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="13" t="str">
         <v>Delivery</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="11" t="str">
         <v>Teslimat</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="str">
+      <c r="A30" s="11" t="str">
         <v>期权</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="11" t="str">
         <v>Options</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="5" t="str">
         <v>Seçenekler</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="5" t="str">
         <v>{24H}%</v>
       </c>
-      <c r="B31" s="13" t="str">
+      <c r="B31" s="7" t="str">
         <v>{24H}%</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="7" t="str">
         <v>{24S}%</v>
       </c>
       <c r="D31" s="1"/>
@@ -1736,16 +1736,16 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="3"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="str">
+      <c r="A32" s="12" t="str">
         <v>4H</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="12" t="str">
         <v>4H</v>
       </c>
-      <c r="C32" s="10" t="str">
+      <c r="C32" s="12" t="str">
         <v>4S</v>
       </c>
       <c r="D32" s="1"/>
@@ -1764,16 +1764,16 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="str">
+      <c r="A33" s="12" t="str">
         <v>1H</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="12" t="str">
         <v>1H</v>
       </c>
-      <c r="C33" s="10" t="str">
+      <c r="C33" s="12" t="str">
         <v>1S</v>
       </c>
       <c r="D33" s="1"/>
@@ -1792,16 +1792,16 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="3"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="str">
+      <c r="A34" s="5" t="str">
         <v>查看更多</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="5" t="str">
         <v>View more</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="5" t="str">
         <v>Daha fazla görüntüle</v>
       </c>
       <c r="D34" s="1"/>
@@ -1821,17 +1821,17 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="str">
+      <c r="A35" s="5" t="str">
         <v>网络错误，请尝试重新连接</v>
       </c>
       <c r="B35" s="1" t="str">
         <v>Network error. Please reconnect.</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="5" t="str">
         <v>Ağ hatası. Lütfen yeniden bağlanın.</v>
       </c>
       <c r="D35" s="1"/>
@@ -1851,17 +1851,17 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="5" t="str">
         <v>未找到相关信息</v>
       </c>
       <c r="B36" s="1" t="str">
         <v>No information found</v>
       </c>
-      <c r="C36" s="7" t="str">
+      <c r="C36" s="5" t="str">
         <v>Bilgi bulunamadı</v>
       </c>
       <c r="D36" s="1"/>
@@ -1881,17 +1881,17 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="str">
+      <c r="A37" s="5" t="str">
         <v>暂无交易市场</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="18" t="str">
         <v>No transactions yet</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="18" t="str">
         <v>Henüz işlem yok</v>
       </c>
       <c r="D37" s="1"/>
@@ -1911,17 +1911,17 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="5" t="str">
         <v>暂无数据</v>
       </c>
-      <c r="B38" s="15" t="str">
+      <c r="B38" s="18" t="str">
         <v>No record</v>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="18" t="str">
         <v>Kayıt yok</v>
       </c>
       <c r="D38" s="1"/>
@@ -1941,17 +1941,17 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="5" t="str">
         <v>K</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="5" t="str">
         <v>K</v>
       </c>
-      <c r="C39" s="7" t="str">
+      <c r="C39" s="5" t="str">
         <v>K</v>
       </c>
       <c r="D39" s="1"/>
@@ -1970,16 +1970,16 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="5" t="str">
         <v>M</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="5" t="str">
         <v>M</v>
       </c>
-      <c r="C40" s="7" t="str">
+      <c r="C40" s="5" t="str">
         <v>M</v>
       </c>
       <c r="D40" s="1"/>
@@ -1998,16 +1998,16 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="str">
+      <c r="A41" s="5" t="str">
         <v>B</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="5" t="str">
         <v>B</v>
       </c>
-      <c r="C41" s="7" t="str">
+      <c r="C41" s="5" t="str">
         <v>B</v>
       </c>
       <c r="D41" s="1"/>
@@ -2026,16 +2026,16 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="3"/>
+      <c r="T41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="str">
+      <c r="A42" s="5" t="str">
         <v>T</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="5" t="str">
         <v>T</v>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C42" s="5" t="str">
         <v>T</v>
       </c>
       <c r="D42" s="1"/>
@@ -2054,415 +2054,415 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="str">
+      <c r="A43" s="5" t="str">
         <v>最高价{prices}</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="5" t="str">
         <v>High {prices}</v>
       </c>
-      <c r="C43" s="7" t="str">
+      <c r="C43" s="5" t="str">
         <v>Yüksek {prices}</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="str">
+      <c r="A44" s="5" t="str">
         <v>最低价{prices}</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="5" t="str">
         <v>Low {prices}</v>
       </c>
-      <c r="C44" s="7" t="str">
+      <c r="C44" s="5" t="str">
         <v>Düşük {prices}</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
     </row>
   </sheetData>
   <picture r:id="rId1"/>
@@ -2506,13 +2506,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2530,16 +2530,16 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="str">
+      <c r="A2" s="5" t="str">
         <v>可交易</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="5" t="str">
         <v>Tradable</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2556,142 +2556,142 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="4" t="str">
         <v>加密货币价格实时行情,排行榜,图表和市值 | Gate.TR</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="5" t="str">
         <v>Real-time cryptocurrency prices, rankings, charts, and market capitalization｜Gate.TR</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>我的</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="4" t="str">
         <v>我的加密货币投资组合｜Gate.TR</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="5" t="str">
         <v>My Cryptocurrency Portfolio｜Gate.TR</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="4" t="str">
         <v>收藏</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="4" t="str">
         <v>关注你最喜欢的加密货币和代币｜Gate.TR</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="B7" s="5" t="str">
         <v>Track your favorite cryptocurrencies and tokens｜Gate.TR</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="str">
+      <c r="A8" s="12" t="str">
         <v>{Amount}条目/页</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="5" t="str">
         <v>{Amount} Entries/Page</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="5" t="str">
         <v>{Amount} Girişler/Sayfa</v>
       </c>
       <c r="D8" s="1"/>
@@ -2711,17 +2711,17 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="12" t="str">
         <v>跳转至</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="5" t="str">
         <v>Jumper to</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="14" t="str">
         <v>Şuraya atla</v>
       </c>
       <c r="D9" s="1"/>
@@ -2741,17 +2741,17 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="str">
         <v>页</v>
       </c>
-      <c r="B10" s="7" t="str">
+      <c r="B10" s="5" t="str">
         <v>Page</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="14" t="str">
         <v>Sayfa</v>
       </c>
       <c r="D10" s="1"/>
@@ -2771,14 +2771,14 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="str">
         <v>前往第{index}页</v>
       </c>
-      <c r="B11" s="7" t="str">
+      <c r="B11" s="5" t="str">
         <v>Go to page {index}</v>
       </c>
       <c r="C11" s="6" t="str">
@@ -2801,17 +2801,17 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="5" t="str">
         <v>请先登陆</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="B12" s="5" t="str">
         <v>Please log in first</v>
       </c>
-      <c r="C12" s="7" t="str">
+      <c r="C12" s="5" t="str">
         <v>Lütfen önce giriş yapın</v>
       </c>
       <c r="D12" s="1"/>
@@ -2831,69 +2831,69 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="5" t="str">
         <v>公告：{massage}</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="5" t="str">
         <v>Notice: {massage}</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="18"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="5" t="str">
         <v>更多</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="5" t="str">
         <v>More</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="18"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="5" t="str">
         <v>已有资产</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="5" t="str">
         <v>My</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2910,16 +2910,16 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="3"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="str">
+      <c r="A16" s="15" t="str">
         <v>搜索</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="16" t="str">
         <v>Search</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2936,16 +2936,16 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="3"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="5" t="str">
         <v>币种</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="5" t="str">
         <v>Currency</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2962,16 +2962,16 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="3"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="5" t="str">
         <v>价格</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="5" t="str">
         <v>Price</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2988,16 +2988,16 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="5" t="str">
         <v>日涨跌</v>
       </c>
-      <c r="B19" s="13" t="str">
+      <c r="B19" s="7" t="str">
         <v>24H Change</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3014,16 +3014,16 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="3"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="5" t="str">
         <v>交易量</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="5" t="str">
         <v>Volume</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3040,16 +3040,16 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="5" t="str">
         <v>总市值</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="5" t="str">
         <v>Market Cap</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3066,16 +3066,16 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="3"/>
+      <c r="T21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="5" t="str">
         <v>走势图</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="5" t="str">
         <v>Chart</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3092,16 +3092,16 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="3"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="5" t="str">
         <v>交易</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="5" t="str">
         <v>Trade</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3118,16 +3118,16 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="3"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="5" t="str">
         <v>操作</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="5" t="str">
         <v>Action</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3144,196 +3144,196 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="3"/>
+      <c r="T24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="5" t="str">
         <v>交易</v>
       </c>
-      <c r="B25" s="9" t="str">
+      <c r="B25" s="11" t="str">
         <v>Trade</v>
       </c>
-      <c r="C25" s="7" t="str">
+      <c r="C25" s="5" t="str">
         <v>İşlem</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="str">
+      <c r="A26" s="5" t="str">
         <v>现货</v>
       </c>
-      <c r="B26" s="9" t="str">
+      <c r="B26" s="11" t="str">
         <v>Spot</v>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="5" t="str">
         <v>Spot</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="str">
+      <c r="A27" s="17" t="str">
         <v>永续合约</v>
       </c>
-      <c r="B27" s="9" t="str">
+      <c r="B27" s="11" t="str">
         <v>Perpetual</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="5" t="str">
         <v>Daimi</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="str">
+      <c r="A28" s="5" t="str">
         <v>杠杆</v>
       </c>
-      <c r="B28" s="9" t="str">
+      <c r="B28" s="11" t="str">
         <v>Margin</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="5" t="str">
         <v>Marj</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="str">
+      <c r="A29" s="11" t="str">
         <v>交割合约</v>
       </c>
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="13" t="str">
         <v>Delivery</v>
       </c>
-      <c r="C29" s="9" t="str">
+      <c r="C29" s="11" t="str">
         <v>Delivery</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="str">
+      <c r="A30" s="11" t="str">
         <v>期权</v>
       </c>
-      <c r="B30" s="9" t="str">
+      <c r="B30" s="11" t="str">
         <v>Options</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="5" t="str">
         <v>Seçenekler</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="5" t="str">
         <v>{24H}%</v>
       </c>
-      <c r="B31" s="13" t="str">
+      <c r="B31" s="7" t="str">
         <v>{24H}%</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3350,16 +3350,16 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="3"/>
+      <c r="T31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="str">
+      <c r="A32" s="12" t="str">
         <v>4H</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="12" t="str">
         <v>4H</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3376,16 +3376,16 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="3"/>
+      <c r="T32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="str">
+      <c r="A33" s="12" t="str">
         <v>1H</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="12" t="str">
         <v>1H</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3402,16 +3402,16 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="3"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="str">
+      <c r="A34" s="5" t="str">
         <v>查看更多</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="5" t="str">
         <v>View more</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="5" t="str">
         <v>Daha fazla görüntüle</v>
       </c>
       <c r="D34" s="1"/>
@@ -3431,17 +3431,17 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="str">
+      <c r="A35" s="5" t="str">
         <v>网络错误，请尝试重新连接</v>
       </c>
       <c r="B35" s="1" t="str">
         <v>Network error. Please reconnect.</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="5" t="str">
         <v>Ağ hatası. Lütfen yeniden bağlanın.</v>
       </c>
       <c r="D35" s="1"/>
@@ -3461,17 +3461,17 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="5" t="str">
         <v>未找到相关信息</v>
       </c>
       <c r="B36" s="1" t="str">
         <v>No information found</v>
       </c>
-      <c r="C36" s="7" t="str">
+      <c r="C36" s="5" t="str">
         <v>Bilgi bulunamadı</v>
       </c>
       <c r="D36" s="1"/>
@@ -3491,17 +3491,17 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="str">
+      <c r="A37" s="5" t="str">
         <v>暂无交易市场</v>
       </c>
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="18" t="str">
         <v>No transactions yet</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="18" t="str">
         <v>Henüz işlem yok</v>
       </c>
       <c r="D37" s="1"/>
@@ -3521,17 +3521,17 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="5" t="str">
         <v>暂无数据</v>
       </c>
-      <c r="B38" s="15" t="str">
+      <c r="B38" s="18" t="str">
         <v>No record</v>
       </c>
-      <c r="C38" s="15" t="str">
+      <c r="C38" s="18" t="str">
         <v>Kayıt yok</v>
       </c>
       <c r="D38" s="1"/>
@@ -3551,17 +3551,17 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="5" t="str">
         <v>K</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="5" t="str">
         <v>K</v>
       </c>
-      <c r="C39" s="7" t="str">
+      <c r="C39" s="5" t="str">
         <v>K</v>
       </c>
       <c r="D39" s="1"/>
@@ -3580,16 +3580,16 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="3"/>
+      <c r="T39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="5" t="str">
         <v>M</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B40" s="5" t="str">
         <v>M</v>
       </c>
-      <c r="C40" s="7" t="str">
+      <c r="C40" s="5" t="str">
         <v>M</v>
       </c>
       <c r="D40" s="1"/>
@@ -3608,16 +3608,16 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="3"/>
+      <c r="T40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="str">
+      <c r="A41" s="5" t="str">
         <v>B</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B41" s="5" t="str">
         <v>B</v>
       </c>
-      <c r="C41" s="7" t="str">
+      <c r="C41" s="5" t="str">
         <v>B</v>
       </c>
       <c r="D41" s="1"/>
@@ -3636,16 +3636,16 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="3"/>
+      <c r="T41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="str">
+      <c r="A42" s="5" t="str">
         <v>T</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="5" t="str">
         <v>T</v>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C42" s="5" t="str">
         <v>T</v>
       </c>
       <c r="D42" s="1"/>
@@ -3664,415 +3664,415 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="str">
+      <c r="A43" s="5" t="str">
         <v>最高价{prices}</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B43" s="5" t="str">
         <v>High {prices}</v>
       </c>
-      <c r="C43" s="7" t="str">
+      <c r="C43" s="5" t="str">
         <v>Yüksek {prices}</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="str">
+      <c r="A44" s="5" t="str">
         <v>最低价{prices}</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B44" s="5" t="str">
         <v>Low {prices}</v>
       </c>
-      <c r="C44" s="7" t="str">
+      <c r="C44" s="5" t="str">
         <v>Düşük {prices}</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
     </row>
   </sheetData>
   <picture r:id="rId1"/>
